--- a/RawData/SeverityFactorCoefficientsforSubcriticalLiquidHotWaterPretreatment.xlsx
+++ b/RawData/SeverityFactorCoefficientsforSubcriticalLiquidHotWaterPretreatment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B155332-6A08-4ED2-940B-16E3D1DFF474}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865A15DB-4F46-46FA-9F96-3CBF05D22616}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>mol proton/L</t>
   </si>
@@ -319,6 +319,14 @@
   </si>
   <si>
     <t>mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2981,29 +2989,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBFDDB0-64D9-428A-B667-8EAE0E841A52}">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="24" max="24" width="21" customWidth="1"/>
+    <col min="25" max="25" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3014,73 +3022,76 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>44</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>315</v>
       </c>
@@ -3090,38 +3101,41 @@
       <c r="C3">
         <v>5.6666666666666696</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5.0549999999999997</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5.2999999999999972</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>300</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>15</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>19.318181818181817</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>19.077270734714578</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1.3499980074418518</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>90</v>
       </c>
@@ -3131,38 +3145,41 @@
       <c r="C4">
         <v>5.6666666666666696</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5.0549999999999997</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5.2999999999999972</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>75</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>15</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.3333333333333333</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>19.318181818181817</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>18.395399418012005</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1.3499448725574894</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>34.799999999999997</v>
       </c>
@@ -3172,38 +3189,41 @@
       <c r="C5">
         <v>5.6666666666666696</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5.0549999999999997</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5.2999999999999972</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>19.8</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>15</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2.6666666666666665</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>19.318181818181817</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>20.102270144327015</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1.7499974170542587</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>19.98</v>
       </c>
@@ -3213,38 +3233,41 @@
       <c r="C6">
         <v>5.6666666666666696</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5.0549999999999997</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5.2999999999999972</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4.9800000000000004</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>15</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>19.318181818181817</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>23.952277114424525</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>1.8499441345729823</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>585</v>
       </c>
@@ -3254,38 +3277,41 @@
       <c r="C7">
         <v>5.6666666666666696</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5.0549999999999997</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5.2999999999999972</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>570</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>15</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>19.318181818181817</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>20.186357658689154</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>4.0499940223254915</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>165</v>
       </c>
@@ -3295,38 +3321,41 @@
       <c r="C8">
         <v>5.6666666666666696</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5.0549999999999997</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5.2999999999999972</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>150</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>15</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1.3333333333333333</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>19.318181818181817</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>21.868176209499609</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>3.7999943913177874</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>54</v>
       </c>
@@ -3336,38 +3365,41 @@
       <c r="C9">
         <v>5.6666666666666696</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5.0549999999999997</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5.2999999999999972</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>39</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>15</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2.6666666666666665</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>19.318181818181817</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>22.78635751109228</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>4.1499938747286329</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>25.200000000000003</v>
       </c>
@@ -3377,38 +3409,41 @@
       <c r="C10">
         <v>5.6666666666666696</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>5.0549999999999997</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>5.2999999999999972</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10.200000000000001</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>15</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>4</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>19.318181818181817</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>25.187249765847696</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>3.7999943913176701</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>1155</v>
       </c>
@@ -3418,38 +3453,41 @@
       <c r="C11">
         <v>5.6666666666666696</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5.0549999999999997</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5.2999999999999972</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1140</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>15</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>19.318181818181817</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>20.020502104699688</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>8.5999873066663479</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>315</v>
       </c>
@@ -3459,38 +3497,41 @@
       <c r="C12">
         <v>5.6666666666666696</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>5.0549999999999997</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5.2999999999999972</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>300</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>15</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.3333333333333333</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>19.318181818181817</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>20.27725604882265</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>11.299983321549931</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>93</v>
       </c>
@@ -3500,38 +3541,41 @@
       <c r="C13">
         <v>5.6666666666666696</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5.0549999999999997</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5.2999999999999972</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>78</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>15</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2.6666666666666665</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>19.318181818181817</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>18.830789850431692</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>10.899983911937522</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>34.799999999999997</v>
       </c>
@@ -3541,34 +3585,37 @@
       <c r="C14">
         <v>5.6666666666666696</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>5.0549999999999997</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5.2999999999999972</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>19.8</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>15</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>19.318181818181817</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>16.218020018892204</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>6.7499900372090096</v>
       </c>
     </row>
